--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV123-001 until DPLKINV123-002 - Profile Reksa - Investasi - Reksadana Approve Data.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV123-001 until DPLKINV123-002 - Profile Reksa - Investasi - Reksadana Approve Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3037605-E420-41F1-AEA8-1D2C08813CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8737774-5BD4-4EB4-B440-0E25DD55AFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPLKINV123-001" sheetId="3" r:id="rId1"/>
@@ -107,47 +107,47 @@
     <t>Pimpinan Kelompok Investasi</t>
   </si>
   <si>
+    <t>EXPLAIN</t>
+  </si>
+  <si>
+    <t>Diverifikasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kembalikan ke Data Entry - Verifikasi - Verifikasi Profile</t>
+  </si>
+  <si>
+    <t>Data dapat Dikembalikan ke Data Entry dengan baik</t>
+  </si>
+  <si>
+    <t>Dikembalikan Ke Register</t>
+  </si>
+  <si>
+    <t>DPLKINV123-002</t>
+  </si>
+  <si>
+    <t>DPLKINV123-002 DATA AKAN DIKEMBALIKAN UNTUK DIEDIT</t>
+  </si>
+  <si>
+    <t>0 : Kembalikan ke Data Entry</t>
+  </si>
+  <si>
+    <t>RD00015</t>
+  </si>
+  <si>
     <t>Username : 32070;
 Password : bni1234;
 Role : 18/19 - Pimpinan Kelompok Investasi/Pengelola Investasis;
-Kode Reksadana : Hasil Generate;
+Kode Reksadana : RD00015;
 Status Verifikasi : 1 : Setuju;
 Keterangan Verifikasi : DPLKINV123-001 DATA APPROVAL</t>
-  </si>
-  <si>
-    <t>EXPLAIN</t>
-  </si>
-  <si>
-    <t>Diverifikasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kembalikan ke Data Entry - Verifikasi - Verifikasi Profile</t>
-  </si>
-  <si>
-    <t>Data dapat Dikembalikan ke Data Entry dengan baik</t>
   </si>
   <si>
     <t>Username : 32070;
 Password : bni1234;
 Role : 18/19 - Pimpinan Kelompok Investasi/Pengelola Investasi;
-Kode Reksadana : Hasil Generate;
+Kode Reksadana : RD00015;
 Status Verifikasi : 0 : Kembalikan ke Data Entry;
 Keterangan Verifikasi : DPLKINV123-001 DATA AKAN DIKEMBALIKAN UNTUK DIEDIT</t>
-  </si>
-  <si>
-    <t>Dikembalikan Ke Register</t>
-  </si>
-  <si>
-    <t>DPLKINV123-002</t>
-  </si>
-  <si>
-    <t>DPLKINV123-002 DATA AKAN DIKEMBALIKAN UNTUK DIEDIT</t>
-  </si>
-  <si>
-    <t>RD00014</t>
-  </si>
-  <si>
-    <t>0 : Kembalikan ke Data Entry</t>
   </si>
 </sst>
 </file>
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653A54F0-D01B-49C0-BB41-F0FC7D2164BA}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,7 +645,7 @@
         <v>24</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="102" x14ac:dyDescent="0.25">
@@ -665,7 +665,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G2" s="6">
         <v>32070</v>
@@ -689,7 +689,7 @@
         <v>22</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>25</v>
@@ -698,7 +698,7 @@
         <v>26</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="3"/>
@@ -716,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529753B5-3704-497B-B695-21C95765C4A3}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,27 +791,27 @@
         <v>24</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>32</v>
-      </c>
       <c r="F2" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2">
         <v>32070</v>
@@ -835,16 +835,16 @@
         <v>22</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
